--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.8260246319213993</v>
+        <v>-1.981077477814098</v>
       </c>
       <c r="C2">
-        <v>-1.981077477814098</v>
+        <v>-0.4414436339245075</v>
       </c>
       <c r="D2">
-        <v>-0.4414436339245075</v>
+        <v>-0.7110977538981412</v>
       </c>
       <c r="E2">
-        <v>-0.7110977538981412</v>
+        <v>-0.159566049999028</v>
       </c>
       <c r="F2">
-        <v>-0.159566049999028</v>
+        <v>-0.3854928109118805</v>
       </c>
       <c r="G2">
-        <v>-0.3854928109118805</v>
+        <v>-0.2776770955153309</v>
       </c>
       <c r="H2">
-        <v>-0.2776770955153309</v>
+        <v>-0.3740767161796326</v>
       </c>
       <c r="I2">
-        <v>-0.3740767161796326</v>
+        <v>0.1293341692733759</v>
       </c>
       <c r="J2">
-        <v>0.1293341692733759</v>
+        <v>0.3878561111968251</v>
       </c>
       <c r="K2">
-        <v>0.3878561111968251</v>
+        <v>-1.336126473781489</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.1405287498260583</v>
+        <v>-0.4101828697996921</v>
       </c>
       <c r="C3">
-        <v>-0.4101828697996921</v>
+        <v>0.1413488340994211</v>
       </c>
       <c r="D3">
-        <v>0.1413488340994211</v>
+        <v>-0.08457792681343129</v>
       </c>
       <c r="E3">
-        <v>-0.08457792681343129</v>
+        <v>0.0232377885831183</v>
       </c>
       <c r="F3">
-        <v>0.0232377885831183</v>
+        <v>-0.0731618320811834</v>
       </c>
       <c r="G3">
-        <v>-0.0731618320811834</v>
+        <v>0.4302490533718251</v>
       </c>
       <c r="H3">
-        <v>0.4302490533718251</v>
+        <v>0.6887709952952742</v>
       </c>
       <c r="I3">
-        <v>0.6887709952952742</v>
+        <v>-1.03521158968304</v>
       </c>
       <c r="J3">
-        <v>-1.03521158968304</v>
+        <v>-0.3815723733203383</v>
       </c>
       <c r="K3">
-        <v>-0.3815723733203383</v>
+        <v>-0.0180284384119071</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.7815531178611421</v>
+        <v>0.5556263569482897</v>
       </c>
       <c r="C4">
-        <v>0.5556263569482897</v>
+        <v>0.6634420723448393</v>
       </c>
       <c r="D4">
-        <v>0.6634420723448393</v>
+        <v>0.5670424516805376</v>
       </c>
       <c r="E4">
-        <v>0.5670424516805376</v>
+        <v>1.070453337133546</v>
       </c>
       <c r="F4">
-        <v>1.070453337133546</v>
+        <v>1.328975279056995</v>
       </c>
       <c r="G4">
-        <v>1.328975279056995</v>
+        <v>-0.3950073059213186</v>
       </c>
       <c r="H4">
-        <v>-0.3950073059213186</v>
+        <v>0.2586319104413827</v>
       </c>
       <c r="I4">
-        <v>0.2586319104413827</v>
+        <v>0.6221758453498138</v>
       </c>
       <c r="J4">
-        <v>0.6221758453498138</v>
+        <v>-0.2785999995298156</v>
       </c>
       <c r="K4">
-        <v>-0.2785999995298156</v>
+        <v>0.7917755574238372</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.59085446968239</v>
+        <v>0.4944548490180882</v>
       </c>
       <c r="C5">
-        <v>0.4944548490180882</v>
+        <v>0.9978657344710967</v>
       </c>
       <c r="D5">
-        <v>0.9978657344710967</v>
+        <v>1.256387676394546</v>
       </c>
       <c r="E5">
-        <v>1.256387676394546</v>
+        <v>-0.467594908583768</v>
       </c>
       <c r="F5">
-        <v>-0.467594908583768</v>
+        <v>0.1860443077789333</v>
       </c>
       <c r="G5">
-        <v>0.1860443077789333</v>
+        <v>0.5495882426873645</v>
       </c>
       <c r="H5">
-        <v>0.5495882426873645</v>
+        <v>-0.351187602192265</v>
       </c>
       <c r="I5">
-        <v>-0.351187602192265</v>
+        <v>0.7191879547613879</v>
       </c>
       <c r="J5">
-        <v>0.7191879547613879</v>
+        <v>0.142128040744926</v>
       </c>
       <c r="K5">
-        <v>0.142128040744926</v>
+        <v>-0.0634779433480902</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.9421746901075616</v>
+        <v>1.200696632031011</v>
       </c>
       <c r="C6">
-        <v>1.200696632031011</v>
+        <v>-0.5232859529473031</v>
       </c>
       <c r="D6">
-        <v>-0.5232859529473031</v>
+        <v>0.1303532634153982</v>
       </c>
       <c r="E6">
-        <v>0.1303532634153982</v>
+        <v>0.4938971983238294</v>
       </c>
       <c r="F6">
-        <v>0.4938971983238294</v>
+        <v>-0.4068786465558001</v>
       </c>
       <c r="G6">
-        <v>-0.4068786465558001</v>
+        <v>0.6634969103978527</v>
       </c>
       <c r="H6">
-        <v>0.6634969103978527</v>
+        <v>0.08643699638139091</v>
       </c>
       <c r="I6">
-        <v>0.08643699638139091</v>
+        <v>-0.1191689877116253</v>
       </c>
       <c r="J6">
-        <v>-0.1191689877116253</v>
+        <v>0.8599759940094719</v>
       </c>
       <c r="K6">
-        <v>0.8599759940094719</v>
+        <v>0.12362965067211</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.8773451131212686</v>
+        <v>-0.2237058967585673</v>
       </c>
       <c r="C7">
-        <v>-0.2237058967585673</v>
+        <v>0.1398380381498639</v>
       </c>
       <c r="D7">
-        <v>0.1398380381498639</v>
+        <v>-0.7609378067297656</v>
       </c>
       <c r="E7">
-        <v>-0.7609378067297656</v>
+        <v>0.3094377502238873</v>
       </c>
       <c r="F7">
-        <v>0.3094377502238873</v>
+        <v>-0.2676221637925746</v>
       </c>
       <c r="G7">
-        <v>-0.2676221637925746</v>
+        <v>-0.4732281478855908</v>
       </c>
       <c r="H7">
-        <v>-0.4732281478855908</v>
+        <v>0.5059168338355065</v>
       </c>
       <c r="I7">
-        <v>0.5059168338355065</v>
+        <v>-0.2304295095018555</v>
       </c>
       <c r="J7">
-        <v>-0.2304295095018555</v>
+        <v>-0.2483993241560489</v>
       </c>
       <c r="K7">
-        <v>-0.2483993241560489</v>
+        <v>-0.224994458615712</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04951982135029001</v>
+        <v>-0.8512560235293395</v>
       </c>
       <c r="C8">
-        <v>-0.8512560235293395</v>
+        <v>0.2191195334243133</v>
       </c>
       <c r="D8">
-        <v>0.2191195334243133</v>
+        <v>-0.3579403805921485</v>
       </c>
       <c r="E8">
-        <v>-0.3579403805921485</v>
+        <v>-0.5635463646851647</v>
       </c>
       <c r="F8">
-        <v>-0.5635463646851647</v>
+        <v>0.4155986170359325</v>
       </c>
       <c r="G8">
-        <v>0.4155986170359325</v>
+        <v>-0.3207477263014294</v>
       </c>
       <c r="H8">
-        <v>-0.3207477263014294</v>
+        <v>-0.3387175409556228</v>
       </c>
       <c r="I8">
-        <v>-0.3387175409556228</v>
+        <v>-0.315312675415286</v>
       </c>
       <c r="J8">
-        <v>-0.315312675415286</v>
+        <v>-0.6804871111820268</v>
       </c>
       <c r="K8">
-        <v>-0.6804871111820268</v>
+        <v>-0.0246675940110746</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.2874422675287736</v>
+        <v>-0.2896176464876882</v>
       </c>
       <c r="C9">
-        <v>-0.2896176464876882</v>
+        <v>-0.4952236305807045</v>
       </c>
       <c r="D9">
-        <v>-0.4952236305807045</v>
+        <v>0.4839213511403928</v>
       </c>
       <c r="E9">
-        <v>0.4839213511403928</v>
+        <v>-0.2524249921969692</v>
       </c>
       <c r="F9">
-        <v>-0.2524249921969692</v>
+        <v>-0.2703948068511625</v>
       </c>
       <c r="G9">
-        <v>-0.2703948068511625</v>
+        <v>-0.2469899413108257</v>
       </c>
       <c r="H9">
-        <v>-0.2469899413108257</v>
+        <v>-0.6121643770775664</v>
       </c>
       <c r="I9">
-        <v>-0.6121643770775664</v>
+        <v>0.04365514009338567</v>
       </c>
       <c r="J9">
-        <v>0.04365514009338567</v>
+        <v>-0.08721574084803801</v>
       </c>
       <c r="K9">
-        <v>-0.08721574084803801</v>
+        <v>-0.1967335397721599</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.5938852086106097</v>
+        <v>0.3852597731104875</v>
       </c>
       <c r="C10">
-        <v>0.3852597731104875</v>
+        <v>-0.3510865702268745</v>
       </c>
       <c r="D10">
-        <v>-0.3510865702268745</v>
+        <v>-0.3690563848810678</v>
       </c>
       <c r="E10">
-        <v>-0.3690563848810678</v>
+        <v>-0.345651519340731</v>
       </c>
       <c r="F10">
-        <v>-0.345651519340731</v>
+        <v>-0.7108259551074718</v>
       </c>
       <c r="G10">
-        <v>-0.7108259551074718</v>
+        <v>-0.0550064379365196</v>
       </c>
       <c r="H10">
-        <v>-0.0550064379365196</v>
+        <v>-0.1858773188779433</v>
       </c>
       <c r="I10">
-        <v>-0.1858773188779433</v>
+        <v>-0.2953951178020652</v>
       </c>
       <c r="J10">
-        <v>-0.2953951178020652</v>
+        <v>-1.125172904869618</v>
       </c>
       <c r="K10">
-        <v>-1.125172904869618</v>
+        <v>-0.5446471157009707</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.2740769919852016</v>
+        <v>-0.292046806639395</v>
       </c>
       <c r="C11">
-        <v>-0.292046806639395</v>
+        <v>-0.2686419410990581</v>
       </c>
       <c r="D11">
-        <v>-0.2686419410990581</v>
+        <v>-0.6338163768657989</v>
       </c>
       <c r="E11">
-        <v>-0.6338163768657989</v>
+        <v>0.02200314030515318</v>
       </c>
       <c r="F11">
-        <v>0.02200314030515318</v>
+        <v>-0.1088677406362705</v>
       </c>
       <c r="G11">
-        <v>-0.1088677406362705</v>
+        <v>-0.2183855395603924</v>
       </c>
       <c r="H11">
-        <v>-0.2183855395603924</v>
+        <v>-1.048163326627946</v>
       </c>
       <c r="I11">
-        <v>-1.048163326627946</v>
+        <v>-0.4676375374592979</v>
       </c>
       <c r="J11">
-        <v>-0.4676375374592979</v>
+        <v>-0.5510236388890779</v>
       </c>
       <c r="K11">
-        <v>-0.5510236388890779</v>
+        <v>-0.7689335164288366</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.09712588908289738</v>
+        <v>-0.4623003248496382</v>
       </c>
       <c r="C12">
-        <v>-0.4623003248496382</v>
+        <v>0.193519192321314</v>
       </c>
       <c r="D12">
-        <v>0.193519192321314</v>
+        <v>0.0626483113798903</v>
       </c>
       <c r="E12">
-        <v>0.0626483113798903</v>
+        <v>-0.04686948754423159</v>
       </c>
       <c r="F12">
-        <v>-0.04686948754423159</v>
+        <v>-0.8766472746117848</v>
       </c>
       <c r="G12">
-        <v>-0.8766472746117848</v>
+        <v>-0.2961214854431372</v>
       </c>
       <c r="H12">
-        <v>-0.2961214854431372</v>
+        <v>-0.3795075868729171</v>
       </c>
       <c r="I12">
-        <v>-0.3795075868729171</v>
+        <v>-0.5974174644126757</v>
       </c>
       <c r="J12">
-        <v>-0.5974174644126757</v>
+        <v>0.9663603392234945</v>
       </c>
       <c r="K12">
-        <v>0.9663603392234945</v>
+        <v>-0.3696233668585691</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.1560540901775642</v>
+        <v>0.02518320923614054</v>
       </c>
       <c r="C13">
-        <v>0.02518320923614054</v>
+        <v>-0.08433458968798135</v>
       </c>
       <c r="D13">
-        <v>-0.08433458968798135</v>
+        <v>-0.9141123767555346</v>
       </c>
       <c r="E13">
-        <v>-0.9141123767555346</v>
+        <v>-0.3335865875868869</v>
       </c>
       <c r="F13">
-        <v>-0.3335865875868869</v>
+        <v>-0.4169726890166669</v>
       </c>
       <c r="G13">
-        <v>-0.4169726890166669</v>
+        <v>-0.6348825665564255</v>
       </c>
       <c r="H13">
-        <v>-0.6348825665564255</v>
+        <v>0.9288952370797448</v>
       </c>
       <c r="I13">
-        <v>0.9288952370797448</v>
+        <v>-0.4070884690023188</v>
       </c>
       <c r="J13">
-        <v>-0.4070884690023188</v>
+        <v>1.033525947527809</v>
       </c>
       <c r="K13">
-        <v>1.033525947527809</v>
+        <v>-0.06691816673301326</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.106237102096024</v>
+        <v>-0.9360148891635773</v>
       </c>
       <c r="C14">
-        <v>-0.9360148891635773</v>
+        <v>-0.3554890999949296</v>
       </c>
       <c r="D14">
-        <v>-0.3554890999949296</v>
+        <v>-0.4388752014247095</v>
       </c>
       <c r="E14">
-        <v>-0.4388752014247095</v>
+        <v>-0.6567850789644682</v>
       </c>
       <c r="F14">
-        <v>-0.6567850789644682</v>
+        <v>0.9069927246717022</v>
       </c>
       <c r="G14">
-        <v>0.9069927246717022</v>
+        <v>-0.4289909814103615</v>
       </c>
       <c r="H14">
-        <v>-0.4289909814103615</v>
+        <v>1.011623435119767</v>
       </c>
       <c r="I14">
-        <v>1.011623435119767</v>
+        <v>-0.0888206791410559</v>
       </c>
       <c r="J14">
-        <v>-0.0888206791410559</v>
+        <v>-0.2990950773107258</v>
       </c>
       <c r="K14">
-        <v>-0.2990950773107258</v>
+        <v>0.2994491260730046</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.2673832081489602</v>
+        <v>-0.3507693095787401</v>
       </c>
       <c r="C15">
-        <v>-0.3507693095787401</v>
+        <v>-0.5686791871184989</v>
       </c>
       <c r="D15">
-        <v>-0.5686791871184989</v>
+        <v>0.9950986165176716</v>
       </c>
       <c r="E15">
-        <v>0.9950986165176716</v>
+        <v>-0.3408850895643921</v>
       </c>
       <c r="F15">
-        <v>-0.3408850895643921</v>
+        <v>1.099729326965736</v>
       </c>
       <c r="G15">
-        <v>1.099729326965736</v>
+        <v>-0.0007147872950865053</v>
       </c>
       <c r="H15">
-        <v>-0.0007147872950865053</v>
+        <v>-0.2109891854647564</v>
       </c>
       <c r="I15">
-        <v>-0.2109891854647564</v>
+        <v>0.387555017918974</v>
       </c>
       <c r="J15">
-        <v>0.387555017918974</v>
+        <v>0.06188637714375961</v>
       </c>
       <c r="K15">
-        <v>0.06188637714375961</v>
+        <v>0.7790661785193633</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,179 +1003,314 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.4749660705519546</v>
+        <v>1.088811733084216</v>
       </c>
       <c r="C16">
-        <v>1.088811733084216</v>
+        <v>-0.2471719729978479</v>
       </c>
       <c r="D16">
-        <v>-0.2471719729978479</v>
+        <v>1.19344244353228</v>
       </c>
       <c r="E16">
-        <v>1.19344244353228</v>
+        <v>0.09299832927145768</v>
       </c>
       <c r="F16">
-        <v>0.09299832927145768</v>
+        <v>-0.1172760688982122</v>
       </c>
       <c r="G16">
-        <v>-0.1172760688982122</v>
+        <v>0.4812681344855182</v>
       </c>
       <c r="H16">
-        <v>0.4812681344855182</v>
+        <v>0.1555994937103038</v>
       </c>
       <c r="I16">
-        <v>0.1555994937103038</v>
+        <v>0.8727792950859075</v>
       </c>
       <c r="J16">
-        <v>0.8727792950859075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>2.568651570723608</v>
+      </c>
+      <c r="K16">
+        <v>9.412898365648186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1.097015279354651</v>
+        <v>-0.2389684267274125</v>
       </c>
       <c r="C17">
-        <v>-0.2389684267274125</v>
+        <v>1.201645989802716</v>
       </c>
       <c r="D17">
-        <v>1.201645989802716</v>
+        <v>0.1012018755418931</v>
       </c>
       <c r="E17">
-        <v>0.1012018755418931</v>
+        <v>-0.1090725226277768</v>
       </c>
       <c r="F17">
-        <v>-0.1090725226277768</v>
+        <v>0.4894716807559536</v>
       </c>
       <c r="G17">
-        <v>0.4894716807559536</v>
+        <v>0.1638030399807392</v>
       </c>
       <c r="H17">
-        <v>0.1638030399807392</v>
+        <v>0.8809828413563429</v>
       </c>
       <c r="I17">
-        <v>0.8809828413563429</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>2.576855116994044</v>
+      </c>
+      <c r="J17">
+        <v>9.421101911918621</v>
+      </c>
+      <c r="K17">
+        <v>-8.12955217118269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.2415579873788807</v>
+        <v>1.199056429151248</v>
       </c>
       <c r="C18">
-        <v>1.199056429151248</v>
+        <v>0.09861231489042488</v>
       </c>
       <c r="D18">
-        <v>0.09861231489042488</v>
+        <v>-0.111662083279245</v>
       </c>
       <c r="E18">
-        <v>-0.111662083279245</v>
+        <v>0.4868821201044854</v>
       </c>
       <c r="F18">
-        <v>0.4868821201044854</v>
+        <v>0.161213479329271</v>
       </c>
       <c r="G18">
-        <v>0.161213479329271</v>
+        <v>0.8783932807048747</v>
       </c>
       <c r="H18">
-        <v>0.8783932807048747</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>2.574265556342576</v>
+      </c>
+      <c r="I18">
+        <v>9.418512351267154</v>
+      </c>
+      <c r="J18">
+        <v>-8.132141731834157</v>
+      </c>
+      <c r="K18">
+        <v>-0.4227451321780102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1.205589761734299</v>
+        <v>0.1051456474734768</v>
       </c>
       <c r="C19">
-        <v>0.1051456474734768</v>
+        <v>-0.1051287506961931</v>
       </c>
       <c r="D19">
-        <v>-0.1051287506961931</v>
+        <v>0.4934154526875373</v>
       </c>
       <c r="E19">
-        <v>0.4934154526875373</v>
+        <v>0.1677468119123229</v>
       </c>
       <c r="F19">
-        <v>0.1677468119123229</v>
+        <v>0.8849266132879265</v>
       </c>
       <c r="G19">
-        <v>0.8849266132879265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>2.580798888925627</v>
+      </c>
+      <c r="H19">
+        <v>9.425045683850206</v>
+      </c>
+      <c r="I19">
+        <v>-8.125608399251105</v>
+      </c>
+      <c r="J19">
+        <v>-0.4162117995949584</v>
+      </c>
+      <c r="K19">
+        <v>1.166700861291953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.006071047505593896</v>
+        <v>-0.2163454456752638</v>
       </c>
       <c r="C20">
-        <v>-0.2163454456752638</v>
+        <v>0.3821987577084666</v>
       </c>
       <c r="D20">
-        <v>0.3821987577084666</v>
+        <v>0.05653011693325222</v>
       </c>
       <c r="E20">
-        <v>0.05653011693325222</v>
+        <v>0.7737099183088558</v>
       </c>
       <c r="F20">
-        <v>0.7737099183088558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>2.469582193946557</v>
+      </c>
+      <c r="G20">
+        <v>9.313828988871135</v>
+      </c>
+      <c r="H20">
+        <v>-8.236825094230175</v>
+      </c>
+      <c r="I20">
+        <v>-0.5274284945740291</v>
+      </c>
+      <c r="J20">
+        <v>1.055484166312883</v>
+      </c>
+      <c r="K20">
+        <v>-1.910802826036373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.2580915896621678</v>
+        <v>0.3404526137215625</v>
       </c>
       <c r="C21">
-        <v>0.3404526137215625</v>
+        <v>0.01478397294634815</v>
       </c>
       <c r="D21">
-        <v>0.01478397294634815</v>
+        <v>0.7319637743219518</v>
       </c>
       <c r="E21">
-        <v>0.7319637743219518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>2.427836049959653</v>
+      </c>
+      <c r="F21">
+        <v>9.272082844884231</v>
+      </c>
+      <c r="G21">
+        <v>-8.278571238217079</v>
+      </c>
+      <c r="H21">
+        <v>-0.5691746385609331</v>
+      </c>
+      <c r="I21">
+        <v>1.013738022325978</v>
+      </c>
+      <c r="J21">
+        <v>-1.952548970023277</v>
+      </c>
+      <c r="K21">
+        <v>0.3114821846411857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.3657676764542774</v>
+        <v>0.04009903567906303</v>
       </c>
       <c r="C22">
-        <v>0.04009903567906303</v>
+        <v>0.7572788370546667</v>
       </c>
       <c r="D22">
-        <v>0.7572788370546667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>2.453151112692368</v>
+      </c>
+      <c r="E22">
+        <v>9.297397907616945</v>
+      </c>
+      <c r="F22">
+        <v>-8.253256175484365</v>
+      </c>
+      <c r="G22">
+        <v>-0.5438595758282182</v>
+      </c>
+      <c r="H22">
+        <v>1.039053085058693</v>
+      </c>
+      <c r="I22">
+        <v>-1.927233907290562</v>
+      </c>
+      <c r="J22">
+        <v>0.3367972473739005</v>
+      </c>
+      <c r="K22">
+        <v>-0.1143569075528381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04413770072197692</v>
+        <v>0.7613175020975806</v>
       </c>
       <c r="C23">
-        <v>0.7613175020975806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>2.457189777735282</v>
+      </c>
+      <c r="D23">
+        <v>9.30143657265986</v>
+      </c>
+      <c r="E23">
+        <v>-8.249217510441451</v>
+      </c>
+      <c r="F23">
+        <v>-0.5398209107853043</v>
+      </c>
+      <c r="G23">
+        <v>1.043091750101607</v>
+      </c>
+      <c r="H23">
+        <v>-1.923195242247649</v>
+      </c>
+      <c r="I23">
+        <v>0.3408359124168144</v>
+      </c>
+      <c r="J23">
+        <v>-0.1103182425099242</v>
+      </c>
+      <c r="K23">
+        <v>-0.2506823060238983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.6424403654065582</v>
+        <v>2.338312641044259</v>
+      </c>
+      <c r="C24">
+        <v>9.182559435968837</v>
+      </c>
+      <c r="D24">
+        <v>-8.368094647132473</v>
+      </c>
+      <c r="E24">
+        <v>-0.6586980474763267</v>
+      </c>
+      <c r="F24">
+        <v>0.9242146134105849</v>
+      </c>
+      <c r="G24">
+        <v>-2.042072378938671</v>
+      </c>
+      <c r="H24">
+        <v>0.221958775725792</v>
+      </c>
+      <c r="I24">
+        <v>-0.2291953792009466</v>
+      </c>
+      <c r="J24">
+        <v>-0.3695594427149207</v>
+      </c>
+      <c r="K24">
+        <v>0.1566795681472968</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.8260246319213993</v>
+      </c>
+      <c r="C2">
         <v>-1.981077477814098</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.4414436339245075</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.7110977538981412</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.159566049999028</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.3854928109118805</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.2776770955153309</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.3740767161796326</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.1293341692733759</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.3878561111968251</v>
-      </c>
-      <c r="K2">
-        <v>-1.336126473781489</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-0.1405287498260583</v>
+      </c>
+      <c r="C3">
         <v>-0.4101828697996921</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1413488340994211</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.08457792681343129</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0232377885831183</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.0731618320811834</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.4302490533718251</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.6887709952952742</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1.03521158968304</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.3815723733203383</v>
-      </c>
-      <c r="K3">
-        <v>-0.0180284384119071</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.7815531178611421</v>
+      </c>
+      <c r="C4">
         <v>0.5556263569482897</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.6634420723448393</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.5670424516805376</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.070453337133546</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.328975279056995</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.3950073059213186</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.2586319104413827</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.6221758453498138</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.2785999995298156</v>
-      </c>
-      <c r="K4">
-        <v>0.7917755574238372</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.59085446968239</v>
+      </c>
+      <c r="C5">
         <v>0.4944548490180882</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.9978657344710967</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.256387676394546</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.467594908583768</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.1860443077789333</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.5495882426873645</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.351187602192265</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.7191879547613879</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.142128040744926</v>
-      </c>
-      <c r="K5">
-        <v>-0.0634779433480902</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.9421746901075616</v>
+      </c>
+      <c r="C6">
         <v>1.200696632031011</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.5232859529473031</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.1303532634153982</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.4938971983238294</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.4068786465558001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.6634969103978527</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.08643699638139091</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.1191689877116253</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.8599759940094719</v>
-      </c>
-      <c r="K6">
-        <v>0.12362965067211</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.8773451131212686</v>
+      </c>
+      <c r="C7">
         <v>-0.2237058967585673</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.1398380381498639</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.7609378067297656</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3094377502238873</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.2676221637925746</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.4732281478855908</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.5059168338355065</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.2304295095018555</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.2483993241560489</v>
-      </c>
-      <c r="K7">
-        <v>-0.224994458615712</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.04951982135029001</v>
+      </c>
+      <c r="C8">
         <v>-0.8512560235293395</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.2191195334243133</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.3579403805921485</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.5635463646851647</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.4155986170359325</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.3207477263014294</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.3387175409556228</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.315312675415286</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.6804871111820268</v>
-      </c>
-      <c r="K8">
-        <v>-0.0246675940110746</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.2874422675287736</v>
+      </c>
+      <c r="C9">
         <v>-0.2896176464876882</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.4952236305807045</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.4839213511403928</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.2524249921969692</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.2703948068511625</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.2469899413108257</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.6121643770775664</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.04365514009338567</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.08721574084803801</v>
-      </c>
-      <c r="K9">
-        <v>-0.1967335397721599</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.5938852086106097</v>
+      </c>
+      <c r="C10">
         <v>0.3852597731104875</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.3510865702268745</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.3690563848810678</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.345651519340731</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.7108259551074718</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.0550064379365196</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.1858773188779433</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.2953951178020652</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1.125172904869618</v>
-      </c>
-      <c r="K10">
-        <v>-0.5446471157009707</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.2740769919852016</v>
+      </c>
+      <c r="C11">
         <v>-0.292046806639395</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.2686419410990581</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.6338163768657989</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.02200314030515318</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.1088677406362705</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.2183855395603924</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-1.048163326627946</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.4676375374592979</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.5510236388890779</v>
-      </c>
-      <c r="K11">
-        <v>-0.7689335164288366</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.09712588908289738</v>
+      </c>
+      <c r="C12">
         <v>-0.4623003248496382</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.193519192321314</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.0626483113798903</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.04686948754423159</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.8766472746117848</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.2961214854431372</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.3795075868729171</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.5974174644126757</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.9663603392234945</v>
-      </c>
-      <c r="K12">
-        <v>-0.3696233668585691</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.1560540901775642</v>
+      </c>
+      <c r="C13">
         <v>0.02518320923614054</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.08433458968798135</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.9141123767555346</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.3335865875868869</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.4169726890166669</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.6348825665564255</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.9288952370797448</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.4070884690023188</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.033525947527809</v>
-      </c>
-      <c r="K13">
-        <v>-0.06691816673301326</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.106237102096024</v>
+      </c>
+      <c r="C14">
         <v>-0.9360148891635773</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.3554890999949296</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.4388752014247095</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.6567850789644682</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.9069927246717022</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.4289909814103615</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.011623435119767</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.0888206791410559</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.2990950773107258</v>
-      </c>
-      <c r="K14">
-        <v>0.2994491260730046</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.2673832081489602</v>
+      </c>
+      <c r="C15">
         <v>-0.3507693095787401</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.5686791871184989</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.9950986165176716</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.3408850895643921</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.099729326965736</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.0007147872950865053</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.2109891854647564</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.387555017918974</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.06188637714375961</v>
-      </c>
-      <c r="K15">
-        <v>0.7790661785193633</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,34 +1003,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.4749660705519546</v>
+      </c>
+      <c r="C16">
         <v>1.088811733084216</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.2471719729978479</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.19344244353228</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.09299832927145768</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.1172760688982122</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.4812681344855182</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.1555994937103038</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.8727792950859075</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.568651570723608</v>
-      </c>
-      <c r="K16">
-        <v>9.412898365648186</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1038,34 +1038,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>1.097015279354651</v>
+      </c>
+      <c r="C17">
         <v>-0.2389684267274125</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.201645989802716</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.1012018755418931</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.1090725226277768</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.4894716807559536</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.1638030399807392</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.8809828413563429</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.576855116994044</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>9.421101911918621</v>
-      </c>
-      <c r="K17">
-        <v>-8.12955217118269</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1073,34 +1073,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.2415579873788807</v>
+      </c>
+      <c r="C18">
         <v>1.199056429151248</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.09861231489042488</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.111662083279245</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.4868821201044854</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.161213479329271</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.8783932807048747</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.574265556342576</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>9.418512351267154</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-8.132141731834157</v>
-      </c>
-      <c r="K18">
-        <v>-0.4227451321780102</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1108,34 +1108,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>1.205589761734299</v>
+      </c>
+      <c r="C19">
         <v>0.1051456474734768</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.1051287506961931</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.4934154526875373</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.1677468119123229</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.8849266132879265</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.580798888925627</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>9.425045683850206</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-8.125608399251105</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.4162117995949584</v>
-      </c>
-      <c r="K19">
-        <v>1.166700861291953</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1143,34 +1143,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.006071047505593896</v>
+      </c>
+      <c r="C20">
         <v>-0.2163454456752638</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.3821987577084666</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.05653011693325222</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.7737099183088558</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.469582193946557</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>9.313828988871135</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-8.236825094230175</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-0.5274284945740291</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.055484166312883</v>
-      </c>
-      <c r="K20">
-        <v>-1.910802826036373</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1178,34 +1178,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.2580915896621678</v>
+      </c>
+      <c r="C21">
         <v>0.3404526137215625</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.01478397294634815</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.7319637743219518</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.427836049959653</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>9.272082844884231</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-8.278571238217079</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.5691746385609331</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1.013738022325978</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-1.952548970023277</v>
-      </c>
-      <c r="K21">
-        <v>0.3114821846411857</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1213,34 +1213,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.3657676764542774</v>
+      </c>
+      <c r="C22">
         <v>0.04009903567906303</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.7572788370546667</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2.453151112692368</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>9.297397907616945</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-8.253256175484365</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.5438595758282182</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1.039053085058693</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1.927233907290562</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.3367972473739005</v>
-      </c>
-      <c r="K22">
-        <v>-0.1143569075528381</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1248,34 +1248,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.04413770072197692</v>
+      </c>
+      <c r="C23">
         <v>0.7613175020975806</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2.457189777735282</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>9.30143657265986</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-8.249217510441451</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-0.5398209107853043</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.043091750101607</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-1.923195242247649</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.3408359124168144</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-0.1103182425099242</v>
-      </c>
-      <c r="K23">
-        <v>-0.2506823060238983</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1283,34 +1283,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.6424403654065582</v>
+      </c>
+      <c r="C24">
         <v>2.338312641044259</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>9.182559435968837</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-8.368094647132473</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.6586980474763267</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.9242146134105849</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-2.042072378938671</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.221958775725792</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.2291953792009466</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-0.3695594427149207</v>
-      </c>
-      <c r="K24">
-        <v>0.1566795681472968</v>
       </c>
     </row>
   </sheetData>
